--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -124,15 +124,15 @@
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -145,16 +145,16 @@
     <t>community</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
   </si>
   <si>
     <t>save</t>
@@ -1438,13 +1438,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7324561403508771</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L25">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="M25">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>0.9399999999999999</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1464,13 +1464,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.7222222222222222</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>0.9399999999999999</v>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1490,25 +1490,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.7173913043478261</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1620,25 +1620,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6299694189602446</v>
+        <v>0.6289473684210526</v>
       </c>
       <c r="L32">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1646,25 +1646,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.6289473684210526</v>
+        <v>0.6175438596491228</v>
       </c>
       <c r="L33">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="M33">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1672,25 +1672,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.6175438596491228</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L34">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1698,25 +1698,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="N35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="10:17">
